--- a/biology/Médecine/Association_médicale_du_Québec/Association_médicale_du_Québec.xlsx
+++ b/biology/Médecine/Association_médicale_du_Québec/Association_médicale_du_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_du_Qu%C3%A9bec</t>
+          <t>Association_médicale_du_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Association médicale du Québec (AMQ ; en anglais, Quebec Medical Association ou QMA) était une association professionnelle qui regroupe près de 10 000 médecins omnipraticiens et spécialistes et résidents ainsi que des étudiants en médecine. En septembre 2019, les membres de l’AMQ ont voté en faveur de la dissolution de leur association. L'Association médicale canadienne ouvre un bureau au Québec[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Association médicale du Québec (AMQ ; en anglais, Quebec Medical Association ou QMA) était une association professionnelle qui regroupe près de 10 000 médecins omnipraticiens et spécialistes et résidents ainsi que des étudiants en médecine. En septembre 2019, les membres de l’AMQ ont voté en faveur de la dissolution de leur association. L'Association médicale canadienne ouvre un bureau au Québec.
 </t>
         </is>
       </c>
